--- a/biology/Histoire de la zoologie et de la botanique/William_Bernhardt_Tegetmeier/William_Bernhardt_Tegetmeier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Bernhardt_Tegetmeier/William_Bernhardt_Tegetmeier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Bernhardt Tegetmeier est un naturaliste britannique, né le 4 novembre 1816 à Colnbrook, dans le Buckinghamshire, et mort le 19 novembre 1912 à Hampstead.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tegetmeier reçoit une première éducation par son père puis part étudier à l’University College de Londres. Il se marie avec Ann Edwards Stone (1826-1901) le 28 décembre 1845[1] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tegetmeier reçoit une première éducation par son père puis part étudier à l’University College de Londres. Il se marie avec Ann Edwards Stone (1826-1901) le 28 décembre 1845 
 Il s’intéresse particulièrement aux pigeons et à la volaille, aux rapaces et aux abeilles. Il rencontre Charles Darwin (1809-1882) vers 1855, les deux commencent alors une correspondance suivie qui porte surtout sur les élevages entrepris par Tegetmeier. Ces échanges alimentent deux livres de Darwin : L'Origine des espèces (1859) et The Variation of Animals and Plants under Domestication (1868). Tegetmeier s’intéresse également à la ruche des abeilles. Il est l’un des fondateurs du Savage Club.
 </t>
         </is>
